--- a/exemples/dummyRepo/Data/10_raw/foobar.xlsx
+++ b/exemples/dummyRepo/Data/10_raw/foobar.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6249630912557423</v>
+        <v>-0.4898193975183976</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.182486240524674</v>
+        <v>0.1882624209144592</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2766146420697765</v>
+        <v>1.773067361132791</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.31672431940941</v>
+        <v>-0.2022601449832017</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.718723435583453</v>
+        <v>-0.6307152211331291</v>
       </c>
       <c r="G2" t="n">
-        <v>-195.3921632853722</v>
+        <v>143.4763671957018</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.958931752788356</v>
+        <v>-1.167318657500331</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.045119292528648</v>
+        <v>0.880007013372281</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3462116666323576</v>
+        <v>-0.3736815492920525</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9974504100375663</v>
+        <v>2.397248564411079</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1131246250087731</v>
+        <v>0.1536532758337279</v>
       </c>
       <c r="G3" t="n">
-        <v>46.30697392213411</v>
+        <v>-16.54488731071292</v>
       </c>
     </row>
     <row r="4">
@@ -516,22 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5325732322981874</v>
+        <v>-1.086173656354475</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15982452810418</v>
+        <v>1.509537124223806</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6972352222344915</v>
+        <v>-0.9208418633364652</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4281792679226823</v>
+        <v>0.2657333937820222</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3197691829464085</v>
+        <v>0.6481286504835939</v>
       </c>
       <c r="G4" t="n">
-        <v>86.53702886126338</v>
+        <v>-119.937997954759</v>
       </c>
     </row>
     <row r="5">
@@ -539,22 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.909046480880826</v>
+        <v>-1.402233726723865</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6180118339442725</v>
+        <v>-0.33033218387453</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3390104931837676</v>
+        <v>-1.696711984631741</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.420319970268838</v>
+        <v>-0.9051893851696918</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4741132222651915</v>
+        <v>0.6578350061505057</v>
       </c>
       <c r="G5" t="n">
-        <v>160.1895416696347</v>
+        <v>-234.7817047710137</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03889606205763391</v>
+        <v>0.172344708309692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1989296147403882</v>
+        <v>0.1541236731964905</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.224801967205736</v>
+        <v>-0.429512821977506</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1638897467503</v>
+        <v>-2.673795835159504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.903640702436091</v>
+        <v>-0.1771681028824738</v>
       </c>
       <c r="G6" t="n">
-        <v>53.84038728404202</v>
+        <v>-102.9261026557544</v>
       </c>
     </row>
     <row r="7">
@@ -585,22 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08690979989095345</v>
+        <v>0.1764047524808456</v>
       </c>
       <c r="C7" t="n">
-        <v>1.596564829070301</v>
+        <v>-0.1441353445053378</v>
       </c>
       <c r="D7" t="n">
-        <v>2.132669249284068</v>
+        <v>1.388263843446881</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.686071066836809</v>
+        <v>-0.125884077961298</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8701857478451305</v>
+        <v>0.1532903346369619</v>
       </c>
       <c r="G7" t="n">
-        <v>14.63236192747221</v>
+        <v>133.8766468827817</v>
       </c>
     </row>
     <row r="8">
@@ -608,22 +608,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.695357546516742</v>
+        <v>0.2302489707826256</v>
       </c>
       <c r="C8" t="n">
-        <v>1.297920755086805</v>
+        <v>1.042874110416008</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3031044163256089</v>
+        <v>-1.212796904345469</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9359022914299771</v>
+        <v>-0.4526399360082471</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5218841031182088</v>
+        <v>0.05181212332389262</v>
       </c>
       <c r="G8" t="n">
-        <v>-86.4346578718836</v>
+        <v>-117.2411098921638</v>
       </c>
     </row>
     <row r="9">
@@ -631,22 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.056955787444496</v>
+        <v>0.6227935071119259</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.789633521072322</v>
+        <v>1.640283321899196</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9290334771992638</v>
+        <v>0.7925097304855997</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.575788018061228</v>
+        <v>-0.2131640152367666</v>
       </c>
       <c r="F9" t="n">
-        <v>1.040578433024126</v>
+        <v>1.086881070355602</v>
       </c>
       <c r="G9" t="n">
-        <v>150.9840466391641</v>
+        <v>92.08758898771944</v>
       </c>
     </row>
     <row r="10">
@@ -654,22 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.500037231477832</v>
+        <v>-0.2941224904724302</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7427311306109673</v>
+        <v>0.7407200198615674</v>
       </c>
       <c r="D10" t="n">
-        <v>1.678331442030157</v>
+        <v>2.826356640527479</v>
       </c>
       <c r="E10" t="n">
-        <v>1.095182016551361</v>
+        <v>1.550123315216861</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.11145680004881</v>
+        <v>1.330151009703252</v>
       </c>
       <c r="G10" t="n">
-        <v>-122.1353015489133</v>
+        <v>294.949398444501</v>
       </c>
     </row>
     <row r="11">
@@ -677,22 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.199977057785265</v>
+        <v>1.898274751616665</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4340992527262601</v>
+        <v>-1.498158755515512</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1714681111813113</v>
+        <v>-1.428991174453064</v>
       </c>
       <c r="E11" t="n">
-        <v>1.782700208040215</v>
+        <v>0.6078611103748824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.940554281116153</v>
+        <v>-0.9587468201975752</v>
       </c>
       <c r="G11" t="n">
-        <v>-134.133697380476</v>
+        <v>-48.58334424089968</v>
       </c>
     </row>
   </sheetData>
